--- a/whonet/static/whonet_xl/org_list_fast.xlsx
+++ b/whonet/static/whonet_xl/org_list_fast.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ORG</t>
-  </si>
-  <si>
-    <t>hpi</t>
   </si>
   <si>
     <t>hib</t>
@@ -452,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +483,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -521,7 +518,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -533,11 +530,6 @@
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
